--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pspn-Ret.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pspn-Ret.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Pspn</t>
+  </si>
+  <si>
+    <t>Ret</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Pspn</t>
-  </si>
-  <si>
-    <t>Ret</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2111796666666667</v>
+        <v>0.5247883333333333</v>
       </c>
       <c r="H2">
-        <v>0.6335390000000001</v>
+        <v>1.574365</v>
       </c>
       <c r="I2">
-        <v>0.05874445468172133</v>
+        <v>0.1674845870648259</v>
       </c>
       <c r="J2">
-        <v>0.06422516575357994</v>
+        <v>0.1674845870648259</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.986848333333333</v>
+        <v>1.219350333333333</v>
       </c>
       <c r="N2">
-        <v>5.960545</v>
+        <v>3.658051</v>
       </c>
       <c r="O2">
-        <v>0.3070436244112906</v>
+        <v>0.2422674834150417</v>
       </c>
       <c r="P2">
-        <v>0.3340680476987617</v>
+        <v>0.2576244469655636</v>
       </c>
       <c r="Q2">
-        <v>0.4195819687505556</v>
+        <v>0.6399008291794444</v>
       </c>
       <c r="R2">
-        <v>3.776237718755</v>
+        <v>5.759107462615</v>
       </c>
       <c r="S2">
-        <v>0.01803711027954052</v>
+        <v>0.04057606941900281</v>
       </c>
       <c r="T2">
-        <v>0.02145557573642782</v>
+        <v>0.04314812411783156</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2111796666666667</v>
+        <v>0.5247883333333333</v>
       </c>
       <c r="H3">
-        <v>0.6335390000000001</v>
+        <v>1.574365</v>
       </c>
       <c r="I3">
-        <v>0.05874445468172133</v>
+        <v>0.1674845870648259</v>
       </c>
       <c r="J3">
-        <v>0.06422516575357994</v>
+        <v>0.1674845870648259</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>8.740984000000001</v>
       </c>
       <c r="O3">
-        <v>0.4502714782425266</v>
+        <v>0.5789028628226193</v>
       </c>
       <c r="P3">
-        <v>0.4899020911420204</v>
+        <v>0.6155986258624717</v>
       </c>
       <c r="Q3">
-        <v>0.615306029152889</v>
+        <v>1.529055475017778</v>
       </c>
       <c r="R3">
-        <v>5.537754262376001</v>
+        <v>13.76149927516</v>
       </c>
       <c r="S3">
-        <v>0.02645095244808977</v>
+        <v>0.09695730693049191</v>
       </c>
       <c r="T3">
-        <v>0.03146404300662169</v>
+        <v>0.1031032816502503</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2111796666666667</v>
+        <v>0.5247883333333333</v>
       </c>
       <c r="H4">
-        <v>0.6335390000000001</v>
+        <v>1.574365</v>
       </c>
       <c r="I4">
-        <v>0.05874445468172133</v>
+        <v>0.1674845870648259</v>
       </c>
       <c r="J4">
-        <v>0.06422516575357994</v>
+        <v>0.1674845870648259</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.5703895</v>
+        <v>0.9000629999999999</v>
       </c>
       <c r="N4">
-        <v>3.140779</v>
+        <v>1.800126</v>
       </c>
       <c r="O4">
-        <v>0.2426848973461828</v>
+        <v>0.178829653762339</v>
       </c>
       <c r="P4">
-        <v>0.1760298611592177</v>
+        <v>0.1267769271719646</v>
       </c>
       <c r="Q4">
-        <v>0.3316343311468334</v>
+        <v>0.4723425616649999</v>
       </c>
       <c r="R4">
-        <v>1.989805986881</v>
+        <v>2.83405536999</v>
       </c>
       <c r="S4">
-        <v>0.01425639195409103</v>
+        <v>0.02995121071533113</v>
       </c>
       <c r="T4">
-        <v>0.01130554701053042</v>
+        <v>0.02123318129674399</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -729,10 +729,10 @@
         <v>6.719791</v>
       </c>
       <c r="I5">
-        <v>0.6230878570540074</v>
+        <v>0.7148668960482055</v>
       </c>
       <c r="J5">
-        <v>0.6812203996982262</v>
+        <v>0.7148668960482057</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.986848333333333</v>
+        <v>1.219350333333333</v>
       </c>
       <c r="N5">
-        <v>5.960545</v>
+        <v>3.658051</v>
       </c>
       <c r="O5">
-        <v>0.3070436244112906</v>
+        <v>0.2422674834150417</v>
       </c>
       <c r="P5">
-        <v>0.3340680476987617</v>
+        <v>0.2576244469655636</v>
       </c>
       <c r="Q5">
-        <v>4.450401849566111</v>
+        <v>2.731259798593444</v>
       </c>
       <c r="R5">
-        <v>40.05361664609499</v>
+        <v>24.581338187341</v>
       </c>
       <c r="S5">
-        <v>0.1913151539565265</v>
+        <v>0.173189003882321</v>
       </c>
       <c r="T5">
-        <v>0.2275739689797566</v>
+        <v>0.1841671887484081</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -791,10 +791,10 @@
         <v>6.719791</v>
       </c>
       <c r="I6">
-        <v>0.6230878570540074</v>
+        <v>0.7148668960482055</v>
       </c>
       <c r="J6">
-        <v>0.6812203996982262</v>
+        <v>0.7148668960482057</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>8.740984000000001</v>
       </c>
       <c r="O6">
-        <v>0.4502714782425266</v>
+        <v>0.5789028628226193</v>
       </c>
       <c r="P6">
-        <v>0.4899020911420204</v>
+        <v>0.6155986258624717</v>
       </c>
       <c r="Q6">
         <v>6.526398401593778</v>
@@ -821,10 +821,10 @@
         <v>58.73758561434401</v>
       </c>
       <c r="S6">
-        <v>0.280558690470676</v>
+        <v>0.413838492659426</v>
       </c>
       <c r="T6">
-        <v>0.333731298340764</v>
+        <v>0.4400710788818459</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>6.719791</v>
       </c>
       <c r="I7">
-        <v>0.6230878570540074</v>
+        <v>0.7148668960482055</v>
       </c>
       <c r="J7">
-        <v>0.6812203996982262</v>
+        <v>0.7148668960482057</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.5703895</v>
+        <v>0.9000629999999999</v>
       </c>
       <c r="N7">
-        <v>3.140779</v>
+        <v>1.800126</v>
       </c>
       <c r="O7">
-        <v>0.2426848973461828</v>
+        <v>0.178829653762339</v>
       </c>
       <c r="P7">
-        <v>0.1760298611592177</v>
+        <v>0.1267769271719646</v>
       </c>
       <c r="Q7">
-        <v>3.517563076198166</v>
+        <v>2.016078415611</v>
       </c>
       <c r="R7">
-        <v>21.105378457189</v>
+        <v>12.096470493666</v>
       </c>
       <c r="S7">
-        <v>0.1512140126268048</v>
+        <v>0.1278393995064586</v>
       </c>
       <c r="T7">
-        <v>0.1199151323777056</v>
+        <v>0.09062862841795175</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.2234583333333333</v>
+        <v>0.3686343333333333</v>
       </c>
       <c r="H8">
-        <v>0.6703750000000001</v>
+        <v>1.105903</v>
       </c>
       <c r="I8">
-        <v>0.06216004666999022</v>
+        <v>0.1176485168869685</v>
       </c>
       <c r="J8">
-        <v>0.06795942395346796</v>
+        <v>0.1176485168869685</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.986848333333333</v>
+        <v>1.219350333333333</v>
       </c>
       <c r="N8">
-        <v>5.960545</v>
+        <v>3.658051</v>
       </c>
       <c r="O8">
-        <v>0.3070436244112906</v>
+        <v>0.2422674834150417</v>
       </c>
       <c r="P8">
-        <v>0.3340680476987617</v>
+        <v>0.2576244469655636</v>
       </c>
       <c r="Q8">
-        <v>0.4439778171527778</v>
+        <v>0.4494943972281111</v>
       </c>
       <c r="R8">
-        <v>3.995800354375</v>
+        <v>4.045449575053</v>
       </c>
       <c r="S8">
-        <v>0.01908584602312877</v>
+        <v>0.02850241011371789</v>
       </c>
       <c r="T8">
-        <v>0.02270307208286751</v>
+        <v>0.03030913409932403</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +956,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.2234583333333333</v>
+        <v>0.3686343333333333</v>
       </c>
       <c r="H9">
-        <v>0.6703750000000001</v>
+        <v>1.105903</v>
       </c>
       <c r="I9">
-        <v>0.06216004666999022</v>
+        <v>0.1176485168869685</v>
       </c>
       <c r="J9">
-        <v>0.06795942395346796</v>
+        <v>0.1176485168869685</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>8.740984000000001</v>
       </c>
       <c r="O9">
-        <v>0.4502714782425266</v>
+        <v>0.5789028628226193</v>
       </c>
       <c r="P9">
-        <v>0.4899020911420204</v>
+        <v>0.6155986258624717</v>
       </c>
       <c r="Q9">
-        <v>0.6510819054444446</v>
+        <v>1.074075603172445</v>
       </c>
       <c r="R9">
-        <v>5.859737149000001</v>
+        <v>9.666680428552002</v>
       </c>
       <c r="S9">
-        <v>0.02798889610172094</v>
+        <v>0.06810706323270133</v>
       </c>
       <c r="T9">
-        <v>0.03329346390761107</v>
+        <v>0.0724242653303756</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1018,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1033,16 +1033,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2234583333333333</v>
+        <v>0.3686343333333333</v>
       </c>
       <c r="H10">
-        <v>0.6703750000000001</v>
+        <v>1.105903</v>
       </c>
       <c r="I10">
-        <v>0.06216004666999022</v>
+        <v>0.1176485168869685</v>
       </c>
       <c r="J10">
-        <v>0.06795942395346796</v>
+        <v>0.1176485168869685</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,214 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.5703895</v>
+        <v>0.9000629999999999</v>
       </c>
       <c r="N10">
-        <v>3.140779</v>
+        <v>1.800126</v>
       </c>
       <c r="O10">
-        <v>0.2426848973461828</v>
+        <v>0.178829653762339</v>
       </c>
       <c r="P10">
-        <v>0.1760298611592177</v>
+        <v>0.1267769271719646</v>
       </c>
       <c r="Q10">
-        <v>0.3509166203541667</v>
+        <v>0.331794123963</v>
       </c>
       <c r="R10">
-        <v>2.105499722125</v>
+        <v>1.990764743778</v>
       </c>
       <c r="S10">
-        <v>0.01508530454514051</v>
+        <v>0.02103904354054927</v>
       </c>
       <c r="T10">
-        <v>0.01196288796298938</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.9203184999999999</v>
-      </c>
-      <c r="H11">
-        <v>1.840637</v>
-      </c>
-      <c r="I11">
-        <v>0.256007641594281</v>
-      </c>
-      <c r="J11">
-        <v>0.1865950105947259</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.986848333333333</v>
-      </c>
-      <c r="N11">
-        <v>5.960545</v>
-      </c>
-      <c r="O11">
-        <v>0.3070436244112906</v>
-      </c>
-      <c r="P11">
-        <v>0.3340680476987617</v>
-      </c>
-      <c r="Q11">
-        <v>1.828533277860833</v>
-      </c>
-      <c r="R11">
-        <v>10.971199667165</v>
-      </c>
-      <c r="S11">
-        <v>0.07860551415209471</v>
-      </c>
-      <c r="T11">
-        <v>0.06233543089970986</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.9203184999999999</v>
-      </c>
-      <c r="H12">
-        <v>1.840637</v>
-      </c>
-      <c r="I12">
-        <v>0.256007641594281</v>
-      </c>
-      <c r="J12">
-        <v>0.1865950105947259</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>2.913661333333334</v>
-      </c>
-      <c r="N12">
-        <v>8.740984000000001</v>
-      </c>
-      <c r="O12">
-        <v>0.4502714782425266</v>
-      </c>
-      <c r="P12">
-        <v>0.4899020911420204</v>
-      </c>
-      <c r="Q12">
-        <v>2.681496427801334</v>
-      </c>
-      <c r="R12">
-        <v>16.088978566808</v>
-      </c>
-      <c r="S12">
-        <v>0.1152729392220398</v>
-      </c>
-      <c r="T12">
-        <v>0.09141328588702369</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.9203184999999999</v>
-      </c>
-      <c r="H13">
-        <v>1.840637</v>
-      </c>
-      <c r="I13">
-        <v>0.256007641594281</v>
-      </c>
-      <c r="J13">
-        <v>0.1865950105947259</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.5703895</v>
-      </c>
-      <c r="N13">
-        <v>3.140779</v>
-      </c>
-      <c r="O13">
-        <v>0.2426848973461828</v>
-      </c>
-      <c r="P13">
-        <v>0.1760298611592177</v>
-      </c>
-      <c r="Q13">
-        <v>1.44525850905575</v>
-      </c>
-      <c r="R13">
-        <v>5.781034036223</v>
-      </c>
-      <c r="S13">
-        <v>0.06212918822014645</v>
-      </c>
-      <c r="T13">
-        <v>0.03284629380799237</v>
+        <v>0.01491511745726885</v>
       </c>
     </row>
   </sheetData>
